--- a/tables/ucim_full.xlsx
+++ b/tables/ucim_full.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,82 +441,117 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>explanation rate</t>
+          <t>necessary explanation rate</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sparsity</t>
+          <t>sufficient explanation rate</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>sparsity_necessary</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>sparsity_sufficient</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>avg_oracle_calls</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>avg_oracle_calls_cf</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Duration</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>initialisation (s)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oracle calls (s)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>explanation (s)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>sparsity_values</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>sparsity_list</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>explanation_rate_list</t>
+          <t>sparsity_values_fid_plus</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>sparsity_list_fid_plus</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>sparsity_values_fid_min</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>sparsity_list_fid_min</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>AUFC_plus</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>AUFC_min</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>necessary_rate_list</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>sufficient_rate_list</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>fidelity_minus</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>fidelity_plus</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>fidelity_minus</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>sparsity_all</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>characterization_score</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Explainer</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>correct</t>
         </is>
       </c>
     </row>
@@ -526,590 +561,835 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>random</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.11</v>
+        <v>0.095</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08877840909090909</v>
+        <v>0.82</v>
       </c>
       <c r="E2" t="n">
-        <v>287.91</v>
+        <v>0.4912280701754387</v>
       </c>
       <c r="F2" t="n">
-        <v>182</v>
+        <v>0.464461932796668</v>
       </c>
       <c r="G2" t="n">
-        <v>36.05963145806</v>
+        <v>13650.305</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0006131137</v>
+        <v>13805</v>
       </c>
       <c r="I2" t="n">
-        <v>35.63310208485</v>
+        <v>89.481513198155</v>
       </c>
       <c r="J2" t="n">
-        <v>0.42652937321</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[0.015625, 0.015625, 0.53125, 0.015625, 0.1875, 0.03125, 0.015625, 0.328125, 0.15625, 0.015625, 0.0625, 0.03125, 0.015625, 0.171875, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.21875]</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.0625, 0.15625, 0.171875, 0.1875, 0.21875, 0.328125, 0.53125, 1.0]</t>
-        </is>
+        <v>0.043306248375</v>
+      </c>
+      <c r="K2" t="n">
+        <v>71.09252430335</v>
+      </c>
+      <c r="L2" t="n">
+        <v>18.34568264643</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.0, 0.055, 0.075, 0.08, 0.085, 0.09, 0.095, 0.1, 0.105, 0.11, 0.11]</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0753125</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>CoDy</t>
-        </is>
-      </c>
-      <c r="R2" t="b">
-        <v>1</v>
+          <t>[0.23333333333333334, 0.5333333333333333, 0.26666666666666666, 0.9, 0.13333333333333333, 0.6333333333333333, 0.8666666666666667, 0.13333333333333333, 0.5666666666666667, 0.5, 0.13333333333333333, 0.26666666666666666, 0.13333333333333333, 0.9, 0.7666666666666667, 0.9333333333333333, 0.5, 0.8666666666666667, 0.06666666666666667]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[0.06665666666666667, 0.06666666666666667, 0.13333333333333333, 0.23333333333333334, 0.26666666666666666, 0.5, 0.5333333333333333, 0.5666666666666667, 0.6333333333333333, 0.7666666666666667, 0.8666666666666667, 0.9, 0.9333333333333333, 1.0]</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>[0.6333333333333333, 0.4482758620689655, 0.2, 0.8666666666666667, 0.9, 0.1, 0.23333333333333334, 0.06666666666666667, 0.5, 0.36666666666666664, 0.5666666666666667, 0.5862068965517241, 0.1, 0.5, 0.13333333333333333, 0.5, 0.23333333333333334, 0.06666666666666667, 0.4, 0.1, 0.13333333333333333, 0.1, 0.7333333333333333, 0.16666666666666666, 0.1, 0.2, 0.8, 0.5333333333333333, 0.3, 0.26666666666666666, 0.7, 0.9, 0.7333333333333333, 0.3, 0.7666666666666667, 0.9333333333333333, 0.16666666666666666, 0.8, 0.8, 0.26666666666666666, 0.3333333333333333, 0.6, 0.9333333333333333, 0.5333333333333333, 0.03333333333333333, 0.13333333333333333, 0.26666666666666666, 0.13333333333333333, 0.23333333333333334, 0.06666666666666667, 0.9, 0.16666666666666666, 0.6666666666666666, 0.6, 0.13333333333333333, 0.2413793103448276, 0.8666666666666667, 0.13333333333333333, 0.4666666666666667, 0.5666666666666667, 0.13333333333333333, 0.5333333333333333, 0.5666666666666667, 0.2, 0.03333333333333333, 0.5333333333333333, 0.03333333333333333, 0.26666666666666666, 0.4666666666666667, 0.8666666666666667, 0.26666666666666666, 0.06666666666666667, 0.16666666666666666, 0.06666666666666667, 0.8, 0.13333333333333333, 0.9, 0.5666666666666667, 0.13333333333333333, 0.23333333333333334, 0.7, 0.1, 0.7586206896551724, 0.9333333333333333, 0.9333333333333333, 0.13333333333333333, 0.4666666666666667, 0.8666666666666667, 0.5, 0.13333333333333333, 0.06666666666666667, 0.13333333333333333, 0.2, 0.8666666666666667, 0.9333333333333333, 0.43333333333333335, 0.16666666666666666, 0.26666666666666666, 0.23333333333333334, 0.4, 0.8333333333333334, 0.7, 0.7, 0.1, 0.3333333333333333, 0.8, 0.1, 0.5666666666666667, 0.9, 0.43333333333333335, 0.6666666666666666, 0.8666666666666667, 0.5333333333333333, 0.3, 0.6, 0.7333333333333333, 0.4666666666666667, 0.7, 0.6666666666666666, 0.4482758620689655, 0.03333333333333333, 0.9, 0.8620689655172413, 0.7333333333333333, 0.5666666666666667, 0.26666666666666666, 0.23333333333333334, 0.2, 0.06666666666666667, 0.43333333333333335, 0.7333333333333333, 0.8333333333333334, 0.7666666666666667, 0.9, 0.2, 0.9333333333333333, 0.16666666666666666, 0.6333333333333333, 0.13333333333333333, 0.13333333333333333, 0.8666666666666667, 0.06666666666666667, 0.7666666666666667, 0.8333333333333334, 0.9, 0.7666666666666667, 0.6666666666666666, 0.9, 0.7142857142857143, 0.13333333333333333, 0.13333333333333333, 0.8666666666666667, 0.13333333333333333, 0.26666666666666666, 0.9333333333333333, 0.1, 0.9333333333333333, 0.5, 0.8666666666666667, 0.43333333333333335, 0.8666666666666667, 0.1, 0.3793103448275862, 0.4666666666666667]</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>[0.03332333333333333, 0.03333333333333333, 0.06666666666666667, 0.1, 0.13333333333333333, 0.16666666666666666, 0.2, 0.23333333333333334, 0.2413793103448276, 0.26666666666666666, 0.3, 0.3333333333333333, 0.36666666666666664, 0.3793103448275862, 0.4, 0.43333333333333335, 0.4482758620689655, 0.4666666666666667, 0.5, 0.5333333333333333, 0.5666666666666667, 0.5862068965517241, 0.6, 0.6333333333333333, 0.6666666666666666, 0.7, 0.7142857142857143, 0.7333333333333333, 0.7586206896551724, 0.7666666666666667, 0.8, 0.8333333333333334, 0.8620689655172413, 0.8666666666666667, 0.9, 0.9333333333333333, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.052000025</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.4504467338259442</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>[0.0, 0.005, 0.025, 0.03, 0.04, 0.05, 0.055, 0.06, 0.065, 0.07, 0.08, 0.09, 0.095, 0.095]</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>[0.0, 0.02, 0.06, 0.11, 0.195, 0.225, 0.255, 0.285, 0.29, 0.33, 0.345, 0.355, 0.36, 0.365, 0.375, 0.395, 0.405, 0.43, 0.455, 0.48, 0.51, 0.515, 0.53, 0.54, 0.56, 0.585, 0.59, 0.615, 0.62, 0.64, 0.665, 0.68, 0.685, 0.735, 0.78, 0.82, 0.82]</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.4328587848932677</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.1702732240437158</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>TGNNExplainer</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>random</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04575892857142857</v>
+        <v>0.34</v>
       </c>
       <c r="E3" t="n">
-        <v>287.92</v>
+        <v>0.01953125</v>
       </c>
       <c r="F3" t="n">
-        <v>207.5714285714286</v>
+        <v>0.04848345588235294</v>
       </c>
       <c r="G3" t="n">
-        <v>36.350656251705</v>
+        <v>27.1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000506169895</v>
+        <v>12.5</v>
       </c>
       <c r="I3" t="n">
-        <v>35.5703631371</v>
+        <v>2.724751367735</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7802931146050001</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[0.015625, 0.046875, 0.015625, 0.046875, 0.015625, 0.03125, 0.03125, 0.015625, 0.046875, 0.03125, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625, 0.109375, 0.03125, 0.03125, 0.0625, 0.015625, 0.015625, 0.234375, 0.015625, 0.0625, 0.015625, 0.015625, 0.171875, 0.078125]</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.109375, 0.171875, 0.234375, 1.0]</t>
-        </is>
+        <v>6.658030499999999e-05</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.71894321349</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.005808154245</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[0.0, 0.055, 0.095, 0.11, 0.12, 0.125, 0.13, 0.135, 0.14, 0.14]</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>0.6850000000000001</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.06796874999999999</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>CoDy</t>
-        </is>
-      </c>
-      <c r="R3" t="b">
-        <v>1</v>
+          <t>[0.03125, 0.015625, 0.015625, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 1.0]</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>[0.140625, 0.125, 0.03125, 0.03125, 0.015625, 0.046875, 0.046875, 0.0625, 0.03125, 0.03125, 0.046875, 0.0625, 0.046875, 0.078125, 0.015625, 0.046875, 0.015625, 0.0625, 0.015625, 0.046875, 0.046875, 0.046875, 0.015625, 0.015625, 0.015625, 0.046875, 0.0625, 0.046875, 0.03125, 0.03125, 0.0625, 0.125, 0.140625, 0.03125, 0.03125, 0.015625, 0.046875, 0.015625, 0.046875, 0.03125, 0.046875, 0.109375, 0.078125, 0.03125, 0.015625, 0.03125, 0.046875, 0.0625, 0.015625, 0.0625, 0.03125, 0.0625, 0.0625, 0.046875, 0.046875, 0.015625, 0.03125, 0.015625, 0.046875, 0.0625, 0.078125, 0.0625, 0.015625, 0.125, 0.046875, 0.03125, 0.03125, 0.078125]</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.109375, 0.125, 0.140625, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0196485125</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.3256644125000001</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>[0.0, 0.015, 0.02, 0.02]</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>[0.0, 0.07, 0.145, 0.235, 0.29, 0.31, 0.315, 0.33, 0.34, 0.34]</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.02703125</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.03777777777777778</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Greedy</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>closest</t>
+          <t>temporal</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1755514705882353</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>287.92</v>
+        <v>0.0546875</v>
       </c>
       <c r="F4" t="n">
-        <v>147.1176470588235</v>
+        <v>0.07756696428571429</v>
       </c>
       <c r="G4" t="n">
-        <v>38.630427320995</v>
+        <v>43.7</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00090590477</v>
+        <v>35</v>
       </c>
       <c r="I4" t="n">
-        <v>35.58296538248</v>
+        <v>4.352619161345</v>
       </c>
       <c r="J4" t="n">
-        <v>3.047461938515</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>[0.015625, 0.015625, 0.921875, 0.015625, 0.015625, 0.609375, 0.015625, 0.515625, 0.015625, 0.25, 0.015625, 0.015625, 0.015625, 0.484375, 0.015625, 0.015625, 0.03125]</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.25, 0.484375, 0.515625, 0.609375, 0.921875, 1.0]</t>
-        </is>
+        <v>6.6799515e-05</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.343725585865</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.008893575480000001</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0.0, 0.055, 0.06, 0.065, 0.07, 0.075, 0.08, 0.085, 0.085]</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>0.645</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.0725</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>CoDy</t>
-        </is>
-      </c>
-      <c r="R4" t="b">
-        <v>1</v>
+          <t>[0.015625, 0.140625, 0.0625, 0.046875, 0.015625, 0.03125, 0.0625, 0.03125, 0.015625, 0.03125, 0.015625, 0.03125, 0.09375, 0.0625, 0.015625, 0.078125, 0.078125, 0.0625, 0.03125, 0.078125, 0.078125, 0.09375, 0.015625, 0.015625, 0.109375, 0.015625, 0.09375, 0.109375]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.140625, 1.0]</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>[0.140625, 0.0625, 0.0625, 0.03125, 0.09375, 0.015625, 0.046875, 0.046875, 0.09375, 0.09375, 0.03125, 0.21875, 0.046875, 0.140625, 0.015625, 0.109375, 0.03125, 0.09375, 0.078125, 0.125, 0.109375, 0.078125, 0.0625, 0.0625, 0.0625, 0.203125, 0.078125, 0.03125, 0.03125, 0.046875, 0.09375, 0.046875, 0.046875, 0.0625, 0.03125, 0.03125, 0.03125, 0.09375, 0.078125, 0.03125, 0.015625, 0.046875, 0.0625, 0.0625, 0.03125, 0.03125, 0.046875, 0.15625, 0.078125, 0.09375, 0.0625, 0.203125, 0.09375, 0.125, 0.09375, 0.09375, 0.0625, 0.109375, 0.078125, 0.0625, 0.0625, 0.015625, 0.078125, 0.109375, 0.0625, 0.03125, 0.09375, 0.078125, 0.015625, 0.046875, 0.0625, 0.03125, 0.015625, 0.0625, 0.046875, 0.203125, 0.0625, 0.0625, 0.078125, 0.09375, 0.078125, 0.140625, 0.078125, 0.046875, 0.015625, 0.03125, 0.078125, 0.03125, 0.234375, 0.109375, 0.078125, 0.109375, 0.09375, 0.09375, 0.125, 0.15625, 0.0625, 0.015625, 0.0625, 0.21875, 0.109375, 0.015625, 0.03125, 0.046875, 0.09375, 0.09375, 0.09375, 0.125, 0.140625, 0.109375, 0.09375, 0.0625]</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.140625, 0.15625, 0.203125, 0.21875, 0.234375, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.1331642625</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.5208205375</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>[0.0, 0.04, 0.065, 0.07, 0.09, 0.11, 0.125, 0.135, 0.14, 0.14]</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>[0.0, 0.045, 0.125, 0.185, 0.285, 0.35, 0.44, 0.48, 0.5, 0.52, 0.53, 0.545, 0.555, 0.56, 0.56]</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.05484375</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Greedy</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>spatio-temporal</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.165</v>
+        <v>0.2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0459280303030303</v>
+        <v>0.7</v>
       </c>
       <c r="E5" t="n">
-        <v>346.5</v>
+        <v>0.062109375</v>
       </c>
       <c r="F5" t="n">
-        <v>263</v>
+        <v>0.09709821428571429</v>
       </c>
       <c r="G5" t="n">
-        <v>43.564437462105</v>
+        <v>57.55</v>
       </c>
       <c r="H5" t="n">
-        <v>0.051230376025</v>
+        <v>39.75</v>
       </c>
       <c r="I5" t="n">
-        <v>42.87601849676999</v>
+        <v>5.953782394765001</v>
       </c>
       <c r="J5" t="n">
-        <v>0.688418965335</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>[0.015625, 0.015625, 0.078125, 0.046875, 0.015625, 0.03125, 0.046875, 0.0625, 0.03125, 0.015625, 0.09375, 0.046875, 0.03125, 0.015625, 0.03125, 0.046875, 0.1875, 0.046875, 0.03125, 0.015625, 0.0625, 0.03125, 0.0625, 0.09375, 0.03125, 0.0625, 0.015625, 0.015625, 0.140625, 0.015625, 0.046875, 0.015625, 0.015625]</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.140625, 0.1875, 1.0]</t>
-        </is>
+        <v>6.47165e-05</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.937898808405</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.01588358636</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0.0, 0.055, 0.09, 0.12, 0.14, 0.145, 0.155, 0.16, 0.165, 0.165]</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+          <t>[0.03125, 0.109375, 0.0625, 0.046875, 0.03125, 0.046875, 0.0625, 0.03125, 0.015625, 0.0625, 0.03125, 0.03125, 0.015625, 0.015625, 0.078125, 0.15625, 0.0625, 0.1875, 0.09375, 0.03125, 0.015625, 0.09375, 0.0625, 0.078125, 0.03125, 0.078125, 0.0625, 0.078125, 0.03125, 0.09375, 0.015625, 0.015625, 0.15625, 0.078125, 0.015625, 0.03125, 0.015625, 0.1875, 0.015625, 0.125]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.15625, 0.1875, 1.0]</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>[0.125, 0.046875, 0.21875, 0.125, 0.078125, 0.109375, 0.234375, 0.046875, 0.046875, 0.09375, 0.078125, 0.078125, 0.03125, 0.125, 0.21875, 0.0625, 0.0625, 0.046875, 0.15625, 0.046875, 0.046875, 0.046875, 0.03125, 0.078125, 0.046875, 0.296875, 0.03125, 0.21875, 0.03125, 0.078125, 0.09375, 0.078125, 0.09375, 0.0625, 0.140625, 0.171875, 0.171875, 0.0625, 0.0625, 0.03125, 0.03125, 0.0625, 0.21875, 0.0625, 0.109375, 0.109375, 0.078125, 0.03125, 0.03125, 0.03125, 0.015625, 0.21875, 0.078125, 0.015625, 0.046875, 0.0625, 0.125, 0.015625, 0.078125, 0.109375, 0.03125, 0.15625, 0.0625, 0.1875, 0.15625, 0.078125, 0.046875, 0.078125, 0.125, 0.046875, 0.09375, 0.125, 0.09375, 0.03125, 0.0625, 0.0625, 0.015625, 0.078125, 0.09375, 0.125, 0.0625, 0.046875, 0.140625, 0.140625, 0.171875, 0.140625, 0.140625, 0.03125, 0.046875, 0.109375, 0.078125, 0.15625, 0.03125, 0.125, 0.171875, 0.078125, 0.078125, 0.078125, 0.046875, 0.140625, 0.125, 0.0625, 0.125, 0.0625, 0.03125, 0.140625, 0.21875, 0.078125, 0.25, 0.328125, 0.046875, 0.0625, 0.25, 0.09375, 0.171875, 0.109375, 0.0625, 0.09375, 0.015625, 0.15625, 0.1875, 0.015625, 0.078125, 0.015625, 0.078125, 0.03125, 0.15625, 0.21875, 0.0625, 0.0625, 0.03125, 0.015625, 0.03125, 0.1875, 0.015625, 0.109375, 0.328125, 0.125, 0.109375, 0.046875]</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.140625, 0.15625, 0.171875, 0.1875, 0.21875, 0.234375, 0.25, 0.296875, 0.328125, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.1889455375</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.63757835</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>[0.0, 0.045, 0.09, 0.1, 0.13, 0.155, 0.17, 0.175, 0.18, 0.19, 0.2, 0.2]</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>[0.0, 0.045, 0.13, 0.21, 0.3, 0.395, 0.435, 0.475, 0.53, 0.565, 0.595, 0.62, 0.635, 0.67, 0.675, 0.685, 0.69, 0.7, 0.7]</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
         <v>0.7</v>
       </c>
-      <c r="O5" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.07078125</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>CoDy</t>
-        </is>
-      </c>
-      <c r="R5" t="b">
-        <v>1</v>
+      <c r="V5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.077421875</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.3111111111111111</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Greedy</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>random</t>
+          <t>1-delta</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.02</v>
+        <v>0.105</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01953125</v>
+        <v>0.67</v>
       </c>
       <c r="E6" t="n">
-        <v>27.1</v>
+        <v>0.0349702380952381</v>
       </c>
       <c r="F6" t="n">
-        <v>12.5</v>
+        <v>0.07567630597014925</v>
       </c>
       <c r="G6" t="n">
-        <v>2.724751367735</v>
+        <v>100.15</v>
       </c>
       <c r="H6" t="n">
-        <v>6.658030499999999e-05</v>
+        <v>75.38095238095238</v>
       </c>
       <c r="I6" t="n">
-        <v>2.71894321349</v>
+        <v>10.946801403775</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005808154245</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>[0.03125, 0.015625, 0.015625, 0.015625]</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 1.0]</t>
-        </is>
+        <v>4.685192684735</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10.92075032551</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.026051078265</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[0.0, 0.015, 0.02, 0.02]</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.02703125</v>
-      </c>
-      <c r="Q6" t="inlineStr">
+          <t>[0.015625, 0.015625, 0.046875, 0.015625, 0.109375, 0.046875, 0.03125, 0.015625, 0.03125, 0.015625, 0.03125, 0.15625, 0.03125, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.109375, 0.15625, 1.0]</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>[0.28125, 0.03125, 0.3125, 0.078125, 0.03125, 0.03125, 0.03125, 0.078125, 0.015625, 0.078125, 0.03125, 0.0625, 0.078125, 0.140625, 0.015625, 0.046875, 0.078125, 0.015625, 0.03125, 0.109375, 0.0625, 0.078125, 0.0625, 0.046875, 0.15625, 0.015625, 0.015625, 0.015625, 0.0625, 0.046875, 0.0625, 0.140625, 0.109375, 0.046875, 0.109375, 0.203125, 0.046875, 0.03125, 0.125, 0.015625, 0.09375, 0.078125, 0.125, 0.078125, 0.015625, 0.015625, 0.03125, 0.03125, 0.0625, 0.03125, 0.015625, 0.078125, 0.0625, 0.015625, 0.03125, 0.03125, 0.046875, 0.125, 0.0625, 0.0625, 0.140625, 0.140625, 0.21875, 0.171875, 0.09375, 0.0625, 0.046875, 0.109375, 0.15625, 0.03125, 0.078125, 0.0625, 0.015625, 0.03125, 0.078125, 0.046875, 0.03125, 0.046875, 0.03125, 0.125, 0.09375, 0.109375, 0.0625, 0.078125, 0.046875, 0.09375, 0.140625, 0.046875, 0.171875, 0.109375, 0.109375, 0.109375, 0.0625, 0.09375, 0.125, 0.0625, 0.03125, 0.0625, 0.0625, 0.0625, 0.109375, 0.125, 0.09375, 0.09375, 0.078125, 0.078125, 0.078125, 0.015625, 0.171875, 0.09375, 0.109375, 0.03125, 0.046875, 0.03125, 0.015625, 0.046875, 0.09375, 0.03125, 0.078125, 0.015625, 0.0625, 0.03125, 0.234375, 0.125, 0.140625, 0.03125, 0.015625, 0.015625, 0.203125, 0.015625, 0.03125, 0.046875, 0.0625, 0.109375]</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.140625, 0.15625, 0.171875, 0.203125, 0.21875, 0.234375, 0.28125, 0.3125, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.1019143375</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.6240238875</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>[0.0, 0.055, 0.08, 0.095, 0.1, 0.105, 0.105]</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>[0.0, 0.09, 0.205, 0.275, 0.37, 0.45, 0.495, 0.55, 0.585, 0.615, 0.625, 0.64, 0.65, 0.655, 0.66, 0.665, 0.67, 0.67]</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.0596875</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.1815483870967742</v>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>Greedy</t>
         </is>
-      </c>
-      <c r="R6" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>random</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0546875</v>
+        <v>0.68</v>
       </c>
       <c r="E7" t="n">
-        <v>43.7</v>
+        <v>0.08877840909090909</v>
       </c>
       <c r="F7" t="n">
-        <v>35</v>
+        <v>0.08880974264705882</v>
       </c>
       <c r="G7" t="n">
-        <v>4.352619161345</v>
+        <v>287.91</v>
       </c>
       <c r="H7" t="n">
-        <v>6.6799515e-05</v>
+        <v>182</v>
       </c>
       <c r="I7" t="n">
-        <v>4.343725585865</v>
+        <v>36.05963145806</v>
       </c>
       <c r="J7" t="n">
-        <v>0.008893575480000001</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>[0.015625, 0.140625, 0.0625, 0.046875, 0.015625, 0.03125, 0.0625, 0.03125, 0.015625, 0.03125, 0.015625, 0.03125, 0.09375, 0.0625, 0.015625, 0.078125, 0.078125, 0.0625, 0.03125, 0.078125, 0.078125, 0.09375, 0.015625, 0.015625, 0.109375, 0.015625, 0.09375, 0.109375]</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.140625, 1.0]</t>
-        </is>
+        <v>0.0006131137</v>
+      </c>
+      <c r="K7" t="n">
+        <v>35.63310208485</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.42652937321</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[0.0, 0.04, 0.065, 0.07, 0.09, 0.11, 0.125, 0.135, 0.14, 0.14]</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.05484375</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Greedy</t>
-        </is>
-      </c>
-      <c r="R7" t="b">
-        <v>1</v>
+          <t>[0.015625, 0.015625, 0.53125, 0.015625, 0.1875, 0.03125, 0.015625, 0.328125, 0.15625, 0.015625, 0.0625, 0.03125, 0.015625, 0.171875, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.21875]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.0625, 0.15625, 0.171875, 0.1875, 0.21875, 0.328125, 0.53125, 1.0]</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>[0.03125, 0.0625, 0.03125, 0.09375, 0.03125, 0.015625, 0.03125, 0.171875, 0.03125, 0.078125, 0.0625, 0.046875, 0.078125, 0.078125, 0.03125, 0.03125, 0.53125, 0.046875, 0.015625, 0.03125, 0.1875, 0.4375, 0.109375, 0.03125, 0.421875, 0.03125, 0.046875, 0.03125, 0.03125, 0.03125, 0.046875, 0.15625, 0.03125, 0.03125, 0.03125, 0.03125, 0.046875, 0.0625, 0.078125, 0.03125, 0.03125, 0.046875, 0.03125, 0.03125, 0.03125, 0.0625, 0.046875, 0.125, 0.328125, 0.15625, 0.03125, 0.03125, 0.046875, 0.015625, 0.109375, 0.796875, 0.046875, 0.0625, 0.203125, 0.046875, 0.03125, 0.03125, 0.15625, 0.046875, 0.03125, 0.09375, 0.03125, 0.03125, 0.03125, 0.03125, 0.34375, 0.03125, 0.15625, 0.03125, 0.03125, 0.1875, 0.015625, 0.046875, 0.03125, 0.03125, 0.0625, 0.125, 0.0625, 0.046875, 0.109375, 0.203125, 0.046875, 0.078125, 0.328125, 0.03125, 0.03125, 0.40625, 0.03125, 0.03125, 0.1875, 0.03125, 0.03125, 0.15625, 0.03125, 0.109375, 0.078125, 0.03125, 0.234375, 0.109375, 0.0625, 0.03125, 0.03125, 0.03125, 0.03125, 0.09375, 0.109375, 0.03125, 0.03125, 0.03125, 0.03125, 0.078125, 0.078125, 0.015625, 0.015625, 0.03125, 0.890625, 0.21875, 0.015625, 0.046875, 0.03125, 0.0625, 0.0625, 0.03125, 0.015625, 0.0625, 0.03125, 0.015625, 0.03125, 0.03125, 0.03125, 0.03125]</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.15625, 0.171875, 0.1875, 0.203125, 0.21875, 0.234375, 0.328125, 0.34375, 0.40625, 0.421875, 0.4375, 0.53125, 0.796875, 0.890625, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.1016409</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.6262892875</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>[0.0, 0.055, 0.075, 0.08, 0.085, 0.09, 0.095, 0.1, 0.105, 0.11, 0.11]</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>[0.0, 0.045, 0.345, 0.42, 0.475, 0.515, 0.53, 0.56, 0.57, 0.595, 0.6, 0.615, 0.625, 0.63, 0.635, 0.645, 0.65, 0.655, 0.66, 0.665, 0.67, 0.675, 0.68, 0.68]</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0753125</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.1893670886075949</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>CoDy</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>closest</t>
+          <t>temporal</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>0.04575892857142857</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.08029197080291971</v>
+      </c>
       <c r="G8" t="n">
-        <v>2.193433708645</v>
+        <v>287.92</v>
       </c>
       <c r="H8" t="n">
-        <v>6.696616000000001e-05</v>
+        <v>207.5714285714286</v>
       </c>
       <c r="I8" t="n">
-        <v>2.18734341252</v>
+        <v>36.350656251705</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006090296125</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>[0.0, 1.0]</t>
-        </is>
+        <v>0.000506169895</v>
+      </c>
+      <c r="K8" t="n">
+        <v>35.5703631371</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.7802931146050001</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.02171875</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Greedy</t>
-        </is>
-      </c>
-      <c r="R8" t="b">
-        <v>1</v>
+          <t>[0.015625, 0.046875, 0.015625, 0.046875, 0.015625, 0.03125, 0.03125, 0.015625, 0.046875, 0.03125, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625, 0.109375, 0.03125, 0.03125, 0.0625, 0.015625, 0.015625, 0.234375, 0.015625, 0.0625, 0.015625, 0.015625, 0.171875, 0.078125]</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.109375, 0.171875, 0.234375, 1.0]</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>[0.03125, 0.046875, 0.046875, 0.03125, 0.03125, 0.03125, 0.015625, 0.078125, 0.046875, 0.171875, 0.03125, 0.0625, 0.0625, 0.03125, 0.03125, 0.03125, 0.046875, 0.03125, 0.015625, 0.03125, 0.03125, 0.046875, 0.03125, 0.03125, 0.40625, 0.03125, 0.03125, 0.03125, 0.015625, 0.03125, 0.03125, 0.125, 0.03125, 0.03125, 0.0625, 0.03125, 0.078125, 0.03125, 0.03125, 0.0625, 0.03125, 0.03125, 0.015625, 0.03125, 0.03125, 0.03125, 0.0625, 0.03125, 0.046875, 0.03125, 0.03125, 0.03125, 0.03125, 0.015625, 0.109375, 0.1875, 0.0625, 0.03125, 0.6875, 0.046875, 0.03125, 0.03125, 0.046875, 0.046875, 0.1875, 0.03125, 0.28125, 0.03125, 0.03125, 0.03125, 0.4375, 0.03125, 0.046875, 0.359375, 0.03125, 0.046875, 0.109375, 0.015625, 0.03125, 0.03125, 0.046875, 0.046875, 0.03125, 0.046875, 0.28125, 0.640625, 0.046875, 0.03125, 0.03125, 0.703125, 0.03125, 0.03125, 0.171875, 0.03125, 0.046875, 0.703125, 0.03125, 0.046875, 0.03125, 0.03125, 0.0625, 0.25, 0.03125, 0.03125, 0.09375, 0.34375, 0.03125, 0.046875, 0.03125, 0.015625, 0.046875, 0.078125, 0.03125, 0.03125, 0.03125, 0.03125, 0.0625, 0.03125, 0.015625, 0.078125, 0.03125, 0.046875, 0.234375, 0.015625, 0.046875, 0.03125, 0.03125, 0.140625, 0.0625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.171875, 0.03125]</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.140625, 0.171875, 0.1875, 0.234375, 0.25, 0.28125, 0.34375, 0.359375, 0.40625, 0.4375, 0.640625, 0.6875, 0.703125, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.134531525</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.6359378</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>[0.0, 0.055, 0.095, 0.11, 0.12, 0.125, 0.13, 0.135, 0.14, 0.14]</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>[0.0, 0.06, 0.405, 0.51, 0.555, 0.575, 0.58, 0.59, 0.595, 0.6, 0.615, 0.625, 0.63, 0.635, 0.645, 0.65, 0.655, 0.66, 0.665, 0.67, 0.675, 0.685, 0.685]</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.06796874999999999</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.2324848484848485</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>CoDy</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>spatio-temporal</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.105</v>
+        <v>0.2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0349702380952381</v>
+        <v>0.715</v>
       </c>
       <c r="E9" t="n">
-        <v>100.15</v>
+        <v>0.05390625</v>
       </c>
       <c r="F9" t="n">
-        <v>75.38095238095238</v>
+        <v>0.07222465034965035</v>
       </c>
       <c r="G9" t="n">
-        <v>10.946801403775</v>
+        <v>287.95</v>
       </c>
       <c r="H9" t="n">
-        <v>4.685192684735</v>
+        <v>235.75</v>
       </c>
       <c r="I9" t="n">
-        <v>10.92075032551</v>
+        <v>38.630427320995</v>
       </c>
       <c r="J9" t="n">
-        <v>0.026051078265</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>[0.015625, 0.015625, 0.046875, 0.015625, 0.109375, 0.046875, 0.03125, 0.015625, 0.03125, 0.015625, 0.03125, 0.15625, 0.03125, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625]</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.109375, 0.15625, 1.0]</t>
-        </is>
+        <v>0.00090590477</v>
+      </c>
+      <c r="K9" t="n">
+        <v>35.58296538248</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.047461938515</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[0.0, 0.055, 0.08, 0.095, 0.1, 0.105, 0.105]</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.105</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.0596875</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Greedy</t>
-        </is>
-      </c>
-      <c r="R9" t="b">
-        <v>1</v>
+          <t>[0.015625, 0.046875, 0.109375, 0.015625, 0.046875, 0.046875, 0.015625, 0.03125, 0.046875, 0.0625, 0.03125, 0.015625, 0.0625, 0.046875, 0.03125, 0.015625, 0.03125, 0.03125, 0.078125, 0.15625, 0.03125, 0.015625, 0.0625, 0.03125, 0.140625, 0.078125, 0.0625, 0.078125, 0.03125, 0.234375, 0.109375, 0.015625, 0.015625, 0.09375, 0.015625, 0.03125, 0.015625, 0.015625, 0.109375, 0.03125]</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.140625, 0.15625, 0.234375, 1.0]</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>[0.03125, 0.203125, 0.046875, 0.046875, 0.03125, 0.03125, 0.03125, 0.03125, 0.046875, 0.046875, 0.078125, 0.046875, 0.0625, 0.046875, 0.078125, 0.046875, 0.03125, 0.046875, 0.046875, 0.046875, 0.015625, 0.03125, 0.03125, 0.0625, 0.03125, 0.09375, 0.046875, 0.03125, 0.046875, 0.03125, 0.03125, 0.03125, 0.03125, 0.09375, 0.046875, 0.03125, 0.0625, 0.046875, 0.078125, 0.03125, 0.03125, 0.03125, 0.046875, 0.0625, 0.09375, 0.03125, 0.140625, 0.078125, 0.078125, 0.046875, 0.046875, 0.03125, 0.03125, 0.03125, 0.109375, 0.015625, 0.046875, 0.046875, 0.046875, 0.03125, 0.078125, 0.078125, 0.0625, 0.03125, 0.046875, 0.046875, 0.15625, 0.03125, 0.375, 0.03125, 0.03125, 0.03125, 0.296875, 0.046875, 0.0625, 0.078125, 0.03125, 0.0625, 0.046875, 0.015625, 0.078125, 0.046875, 0.0625, 0.03125, 0.03125, 0.140625, 0.09375, 0.109375, 0.078125, 0.046875, 0.046875, 0.703125, 0.0625, 0.078125, 0.03125, 0.03125, 0.09375, 0.703125, 0.03125, 0.078125, 0.046875, 0.109375, 0.078125, 0.0625, 0.078125, 0.1875, 0.21875, 0.34375, 0.078125, 0.078125, 0.03125, 0.03125, 0.03125, 0.234375, 0.0625, 0.03125, 0.03125, 0.03125, 0.03125, 0.109375, 0.078125, 0.015625, 0.078125, 0.046875, 0.03125, 0.09375, 0.015625, 0.15625, 0.046875, 0.046875, 0.03125, 0.078125, 0.03125, 0.03125, 0.015625, 0.03125, 0.03125, 0.015625, 0.03125, 0.03125, 0.109375, 0.03125, 0.0625]</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.140625, 0.15625, 0.1875, 0.203125, 0.21875, 0.234375, 0.296875, 0.34375, 0.375, 0.703125, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.19054715</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.6705861125</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>[0.0, 0.055, 0.105, 0.13, 0.15, 0.165, 0.17, 0.185, 0.19, 0.195, 0.2, 0.2]</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>[0.0, 0.035, 0.285, 0.44, 0.5, 0.595, 0.625, 0.65, 0.66, 0.67, 0.675, 0.68, 0.685, 0.69, 0.695, 0.7, 0.705, 0.715, 0.715]</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.0621875</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.312568306010929</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>CoDy</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1-delta</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.095</v>
+        <v>0.165</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4912280701754387</v>
+        <v>0.7</v>
       </c>
       <c r="E10" t="n">
-        <v>13650.305</v>
+        <v>0.0459280303030303</v>
       </c>
       <c r="F10" t="n">
-        <v>13805</v>
+        <v>0.08058035714285715</v>
       </c>
       <c r="G10" t="n">
-        <v>89.481513198155</v>
+        <v>346.5</v>
       </c>
       <c r="H10" t="n">
-        <v>0.043306248375</v>
+        <v>263</v>
       </c>
       <c r="I10" t="n">
-        <v>71.09252430335</v>
+        <v>43.564437462105</v>
       </c>
       <c r="J10" t="n">
-        <v>18.34568264643</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>[0.23333333333333334, 0.5333333333333333, 0.26666666666666666, 0.9, 0.13333333333333333, 0.6333333333333333, 0.8666666666666667, 0.13333333333333333, 0.5666666666666667, 0.5, 0.13333333333333333, 0.26666666666666666, 0.13333333333333333, 0.9, 0.7666666666666667, 0.9333333333333333, 0.5, 0.8666666666666667, 0.06666666666666667]</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>[0.06665666666666667, 0.06666666666666667, 0.13333333333333333, 0.23333333333333334, 0.26666666666666666, 0.5, 0.5333333333333333, 0.5666666666666667, 0.6333333333333333, 0.7666666666666667, 0.8666666666666667, 0.9, 0.9333333333333333, 1.0]</t>
-        </is>
+        <v>0.051230376025</v>
+      </c>
+      <c r="K10" t="n">
+        <v>42.87601849676999</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.688418965335</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0.0, 0.005, 0.025, 0.03, 0.04, 0.05, 0.055, 0.06, 0.065, 0.07, 0.08, 0.09, 0.095, 0.095]</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.4328587848932677</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>TGNNExplainer</t>
-        </is>
-      </c>
-      <c r="R10" t="b">
-        <v>1</v>
+          <t>[0.015625, 0.015625, 0.078125, 0.046875, 0.015625, 0.03125, 0.046875, 0.0625, 0.03125, 0.015625, 0.09375, 0.046875, 0.03125, 0.015625, 0.03125, 0.046875, 0.1875, 0.046875, 0.03125, 0.015625, 0.0625, 0.03125, 0.0625, 0.09375, 0.03125, 0.0625, 0.015625, 0.015625, 0.140625, 0.015625, 0.046875, 0.015625, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.140625, 0.1875, 1.0]</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>[0.03125, 0.046875, 0.03125, 0.03125, 0.15625, 0.03125, 0.03125, 0.03125, 0.046875, 0.09375, 0.0625, 0.078125, 0.0625, 0.0625, 0.0625, 0.046875, 0.03125, 0.046875, 0.046875, 0.015625, 0.03125, 0.0625, 0.0625, 0.03125, 0.109375, 0.046875, 0.03125, 0.21875, 0.03125, 0.03125, 0.03125, 0.046875, 0.0625, 0.046875, 0.0625, 0.109375, 0.140625, 0.0625, 0.09375, 0.0625, 0.03125, 0.0625, 0.0625, 0.09375, 0.0625, 0.046875, 0.09375, 0.078125, 0.265625, 0.046875, 0.03125, 0.03125, 0.03125, 0.0625, 0.015625, 0.03125, 0.078125, 0.171875, 0.03125, 0.046875, 0.0625, 0.09375, 0.03125, 0.046875, 0.125, 0.046875, 0.109375, 0.03125, 0.046875, 0.046875, 0.3125, 0.03125, 0.109375, 0.5, 0.03125, 0.0625, 0.046875, 0.015625, 0.09375, 0.046875, 0.0625, 0.03125, 0.03125, 0.125, 0.09375, 0.0625, 0.078125, 0.0625, 0.078125, 0.5, 0.03125, 0.125, 0.03125, 0.03125, 0.046875, 0.71875, 0.046875, 0.125, 0.046875, 0.09375, 0.109375, 0.0625, 0.0625, 0.109375, 0.1875, 0.046875, 0.0625, 0.09375, 0.109375, 0.046875, 0.03125, 0.15625, 0.203125, 0.03125, 0.03125, 0.03125, 0.09375, 0.0625, 0.09375, 0.015625, 0.09375, 0.046875, 0.359375, 0.140625, 0.015625, 0.109375, 0.0625, 0.046875, 0.046875, 0.078125, 0.078125, 0.046875, 0.015625, 0.03125, 0.03125, 0.015625, 0.03125, 0.046875, 0.203125, 0.03125]</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.140625, 0.15625, 0.171875, 0.1875, 0.203125, 0.21875, 0.265625, 0.3125, 0.359375, 0.5, 0.71875, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.158437775</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.650156425</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>[0.0, 0.055, 0.09, 0.12, 0.14, 0.145, 0.155, 0.16, 0.165, 0.165]</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>[0.0, 0.035, 0.215, 0.35, 0.47, 0.505, 0.565, 0.605, 0.625, 0.635, 0.645, 0.65, 0.655, 0.665, 0.67, 0.675, 0.68, 0.685, 0.695, 0.7, 0.7]</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.07078125</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.2670520231213873</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>CoDy</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1118,592 +1398,835 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>random</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.355</v>
+        <v>0.2512820512820513</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04049295774647887</v>
+        <v>0.8256410256410256</v>
       </c>
       <c r="E11" t="n">
-        <v>246.825</v>
+        <v>0.4578231292517006</v>
       </c>
       <c r="F11" t="n">
-        <v>169.5915492957747</v>
+        <v>0.3630659825366821</v>
       </c>
       <c r="G11" t="n">
-        <v>36.404912224125</v>
+        <v>13685.13846153846</v>
       </c>
       <c r="H11" t="n">
-        <v>0.000680933015</v>
+        <v>13805</v>
       </c>
       <c r="I11" t="n">
-        <v>35.993800809235</v>
+        <v>79.84199424768205</v>
       </c>
       <c r="J11" t="n">
-        <v>0.41111141489</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>[0.0625, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.171875, 0.015625, 0.046875, 0.0625, 0.015625, 0.015625, 0.015625, 0.03125, 0.109375, 0.15625, 0.09375, 0.015625, 0.015625, 0.140625, 0.015625, 0.0625, 0.015625, 0.015625, 0.015625, 0.0625, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.046875, 0.0625, 0.03125, 0.015625, 0.046875, 0.015625, 0.015625, 0.03125, 0.015625, 0.15625, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.046875, 0.171875, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.1875, 0.046875, 0.015625, 0.046875, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.078125, 0.046875, 0.015625]</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.140625, 0.15625, 0.171875, 0.1875, 1.0]</t>
-        </is>
+        <v>0.03335020975384615</v>
+      </c>
+      <c r="K11" t="n">
+        <v>63.97115796353846</v>
+      </c>
+      <c r="L11" t="n">
+        <v>15.83748607438974</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[0.0, 0.205, 0.235, 0.285, 0.31, 0.315, 0.32, 0.325, 0.33, 0.34, 0.35, 0.355, 0.355]</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.355</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.04921875</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>CoDy</t>
-        </is>
-      </c>
-      <c r="R11" t="b">
-        <v>0</v>
+          <t>[0.03333333333333333, 0.13333333333333333, 0.7, 0.6, 0.06666666666666667, 0.8, 0.1, 0.9, 0.7, 0.4666666666666667, 0.3, 0.2, 0.8333333333333334, 0.26666666666666666, 0.03333333333333333, 0.8666666666666667, 0.2, 0.5333333333333333, 0.5, 0.1, 0.9333333333333333, 0.8333333333333334, 0.6333333333333333, 0.7, 0.3333333333333333, 0.1, 0.7666666666666667, 0.23333333333333334, 0.2, 0.7, 0.7333333333333333, 0.1, 0.8333333333333334, 0.1, 0.6333333333333333, 0.13333333333333333, 0.9333333333333333, 0.23333333333333334, 0.7333333333333333, 0.7333333333333333, 0.4, 0.06666666666666667, 0.2, 0.8333333333333334, 0.43333333333333335, 0.9333333333333333, 0.06666666666666667, 0.36666666666666664, 0.2]</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>[0.03332333333333333, 0.03333333333333333, 0.06666666666666667, 0.1, 0.13333333333333333, 0.2, 0.23333333333333334, 0.26666666666666666, 0.3, 0.3333333333333333, 0.36666666666666664, 0.4, 0.43333333333333335, 0.4666666666666667, 0.5, 0.5333333333333333, 0.6, 0.6333333333333333, 0.7, 0.7333333333333333, 0.7666666666666667, 0.8, 0.8333333333333334, 0.8666666666666667, 0.9, 0.9333333333333333, 1.0]</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>[0.03333333333333333, 0.9333333333333333, 0.03333333333333333, 0.03333333333333333, 0.5666666666666667, 0.06666666666666667, 0.2, 0.13333333333333333, 0.7, 1.0, 0.5, 0.13333333333333333, 0.0, 0.6, 0.8666666666666667, 0.06666666666666667, 0.1, 0.08695652173913043, 0.8, 0.5333333333333333, 0.13333333333333333, 0.03333333333333333, 0.6333333333333333, 0.06666666666666667, 0.13333333333333333, 0.6333333333333333, 0.1, 0.06666666666666667, 0.9, 0.26666666666666666, 0.7, 0.8333333333333334, 0.4666666666666667, 0.06666666666666667, 0.06666666666666667, 0.06666666666666667, 0.7666666666666667, 0.06666666666666667, 0.3, 0.7333333333333333, 0.2, 0.9333333333333333, 0.7, 0.8333333333333334, 0.8333333333333334, 0.1, 0.13333333333333333, 0.06666666666666667, 0.03333333333333333, 0.06666666666666667, 0.26666666666666666, 0.06666666666666667, 0.03333333333333333, 0.7666666666666667, 0.8333333333333334, 0.03333333333333333, 0.8666666666666667, 0.2, 0.1, 0.7333333333333333, 0.5333333333333333, 0.0, 0.5, 0.9333333333333333, 0.03333333333333333, 0.03333333333333333, 0.1, 0.9333333333333333, 0.3333333333333333, 0.8666666666666667, 0.8333333333333334, 0.16666666666666666, 0.06666666666666667, 0.03333333333333333, 0.03333333333333333, 0.06666666666666667, 0.9333333333333333, 0.23333333333333334, 0.06666666666666667, 0.03333333333333333, 0.9666666666666667, 0.03333333333333333, 0.16666666666666666, 0.13333333333333333, 0.06666666666666667, 0.6333333333333333, 0.3, 0.06666666666666667, 0.7, 0.9333333333333333, 0.16666666666666666, 0.8333333333333334, 0.9333333333333333, 0.9333333333333333, 0.1, 0.06666666666666667, 0.13333333333333333, 0.9333333333333333, 0.06666666666666667, 0.9333333333333333, 0.6, 0.13333333333333333, 0.23333333333333334, 0.1, 0.36666666666666664, 0.03333333333333333, 0.23333333333333334, 0.2, 0.7, 0.7, 0.8666666666666667, 0.06666666666666667, 0.7333333333333333, 0.1, 0.06666666666666667, 0.06666666666666667, 0.1, 0.16666666666666666, 0.3, 0.8333333333333334, 0.1, 0.9333333333333333, 0.03333333333333333, 0.6333333333333333, 0.9333333333333333, 0.13333333333333333, 0.13333333333333333, 0.9333333333333333, 0.26666666666666666, 0.0, 0.23333333333333334, 0.06666666666666667, 0.9666666666666667, 0.7333333333333333, 0.7333333333333333, 0.4, 0.03333333333333333, 0.03333333333333333, 0.1, 0.03333333333333333, 0.2, 0.03333333333333333, 0.8666666666666667, 0.8333333333333334, 0.03333333333333333, 0.06666666666666667, 0.13333333333333333, 0.9, 0.06666666666666667, 0.03333333333333333, 0.1, 0.9333333333333333, 0.16666666666666666, 0.06666666666666667, 0.26666666666666666, 0.03333333333333333, 0.03333333333333333, 0.9, 0.13333333333333333, 0.36666666666666664, 0.2]</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.03333333333333333, 0.06666666666666667, 0.08695652173913043, 0.1, 0.13333333333333333, 0.16666666666666666, 0.2, 0.23333333333333334, 0.26666666666666666, 0.3, 0.3333333333333333, 0.36666666666666664, 0.4, 0.4666666666666667, 0.5, 0.5333333333333333, 0.5666666666666667, 0.6, 0.6333333333333333, 0.7, 0.7333333333333333, 0.7666666666666667, 0.8, 0.8333333333333334, 0.8666666666666667, 0.9, 0.9333333333333333, 0.9666666666666667, 1.0, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.1375833833333333</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.5258406547101449</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>[0.0, 0.01, 0.025, 0.05, 0.06, 0.085, 0.095, 0.1, 0.105, 0.11, 0.115, 0.12, 0.125, 0.13, 0.135, 0.14, 0.145, 0.155, 0.175, 0.19, 0.195, 0.2, 0.22, 0.225, 0.23, 0.245, 0.245]</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>[0.0, 0.015, 0.13, 0.255, 0.26, 0.32, 0.38, 0.405, 0.435, 0.455, 0.475, 0.49, 0.495, 0.505, 0.51, 0.515, 0.525, 0.535, 0.54, 0.55, 0.57, 0.6, 0.625, 0.635, 0.64, 0.68, 0.705, 0.72, 0.79, 0.8, 0.805, 0.805]</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>0.8256410256410256</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.2512820512820513</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.3523196981390961</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.3852991452991453</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>TGNNExplainer</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>random</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.39</v>
+        <v>0.075</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04226762820512821</v>
+        <v>0.965</v>
       </c>
       <c r="E12" t="n">
-        <v>245.64</v>
+        <v>0.03958333333333333</v>
       </c>
       <c r="F12" t="n">
-        <v>178.3461538461538</v>
+        <v>0.02258743523316062</v>
       </c>
       <c r="G12" t="n">
-        <v>36.053679122735</v>
+        <v>23.4</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00056981451</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="I12" t="n">
-        <v>35.58705442561</v>
+        <v>2.585628352755</v>
       </c>
       <c r="J12" t="n">
-        <v>0.466624697125</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>[0.046875, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.0625, 0.15625, 0.015625, 0.03125, 0.046875, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.046875, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.6875, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.203125, 0.03125, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.203125, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.265625, 0.03125, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.046875, 0.078125, 0.015625, 0.03125, 0.03125, 0.015625]</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.15625, 0.203125, 0.265625, 0.6875, 1.0]</t>
-        </is>
+        <v>6.7395315e-05</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.58031271672</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.005315636035</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[0.0, 0.205, 0.335, 0.355, 0.36, 0.365, 0.37, 0.38, 0.385, 0.39, 0.39]</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>0.955</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.04401041666666666</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>CoDy</t>
-        </is>
-      </c>
-      <c r="R12" t="b">
-        <v>0</v>
+          <t>[0.015625, 0.03125, 0.0625, 0.0625, 0.015625, 0.015625, 0.0625, 0.0625, 0.03125, 0.03125, 0.03125, 0.03125, 0.015625, 0.09375, 0.03125]</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.0625, 0.09375, 1.0]</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>[0.03125, 0.0, 0.0, 0.015625, 0.0, 0.015625, 0.046875, 0.03125, 0.09375, 0.03125, 0.03125, 0.125, 0.0, 0.03125, 0.0, 0.015625, 0.015625, 0.0, 0.015625, 0.015625, 0.03125, 0.0625, 0.015625, 0.0, 0.0625, 0.0, 0.015625, 0.0, 0.046875, 0.0, 0.0, 0.015625, 0.046875, 0.0, 0.0625, 0.015625, 0.0, 0.0, 0.03125, 0.0, 0.0, 0.03125, 0.03125, 0.0, 0.0, 0.0625, 0.0, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.09375, 0.0, 0.0, 0.0, 0.0, 0.03125, 0.03125, 0.015625, 0.0, 0.015625, 0.046875, 0.015625, 0.0, 0.03125, 0.03125, 0.0, 0.09375, 0.015625, 0.03125, 0.046875, 0.0, 0.03125, 0.03125, 0.0, 0.0, 0.0, 0.046875, 0.015625, 0.03125, 0.046875, 0.015625, 0.0, 0.015625, 0.0625, 0.0, 0.0625, 0.0, 0.0, 0.03125, 0.0, 0.015625, 0.0, 0.0, 0.015625, 0.03125, 0.03125, 0.0, 0.015625, 0.015625, 0.0625, 0.015625, 0.0, 0.0625, 0.0, 0.015625, 0.03125, 0.03125, 0.078125, 0.046875, 0.09375, 0.015625, 0.0, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.0, 0.03125, 0.0, 0.03125, 0.046875, 0.015625, 0.0, 0.0, 0.03125, 0.015625, 0.046875, 0.0, 0.015625, 0.03125, 0.015625, 0.03125, 0.03125, 0.0, 0.03125, 0.078125, 0.046875, 0.0, 0.046875, 0.0, 0.0, 0.046875, 0.015625, 0.046875, 0.046875, 0.0, 0.03125, 0.015625, 0.015625, 0.03125, 0.0625, 0.015625, 0.03125, 0.015625, 0.03125, 0.0, 0.015625, 0.046875, 0.046875, 0.015625, 0.0, 0.03125, 0.0, 0.015625, 0.015625, 0.0, 0.015625, 0.03125, 0.0, 0.046875, 0.0, 0.0, 0.015625, 0.109375, 0.0, 0.0, 0.015625, 0.09375, 0.0, 0.0, 0.0, 0.046875, 0.03125, 0.0, 0.0, 0.015625, 0.0, 0.03125]</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.07265634999999999</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.9481657125</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>[0.0, 0.02, 0.05, 0.07, 0.075, 0.075]</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>[0.0, 0.33, 0.575, 0.78, 0.875, 0.92, 0.93, 0.955, 0.96, 0.965, 0.965]</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.022890625</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.1391826923076923</v>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Greedy</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>closest</t>
+          <t>temporal</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06406249999999999</v>
+        <v>0.98</v>
       </c>
       <c r="E13" t="n">
-        <v>246.605</v>
+        <v>0.02769886363636364</v>
       </c>
       <c r="F13" t="n">
-        <v>113.52</v>
+        <v>0.03632546768707483</v>
       </c>
       <c r="G13" t="n">
-        <v>37.35457269503</v>
+        <v>29.85</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001008143465</v>
+        <v>17.72727272727273</v>
       </c>
       <c r="I13" t="n">
-        <v>35.731533867985</v>
+        <v>3.13097577488</v>
       </c>
       <c r="J13" t="n">
-        <v>1.623038827045</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>[0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.71875, 0.015625, 0.015625, 0.015625, 0.328125, 0.015625, 0.015625, 0.015625, 0.15625, 0.015625, 0.25, 0.015625, 0.015625, 0.015625, 0.4375, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.484375, 0.015625, 0.015625, 0.015625, 0.109375, 0.015625]</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.109375, 0.15625, 0.25, 0.328125, 0.4375, 0.484375, 0.71875, 1.0]</t>
-        </is>
+        <v>6.730828999999999e-05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.1244886246</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.00648715028</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[0.0, 0.205, 0.21, 0.215, 0.22, 0.225, 0.23, 0.235, 0.24, 0.245, 0.25, 0.25]</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>0.955</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.04997395833333333</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>CoDy</t>
-        </is>
-      </c>
-      <c r="R13" t="b">
-        <v>0</v>
+          <t>[0.03125, 0.03125, 0.015625, 0.015625, 0.09375, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.046875, 0.046875, 0.03125, 0.015625, 0.046875, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.046875, 0.03125, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.0625, 0.09375, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.046875, 0.0625, 0.015625, 0.046875, 0.03125, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.09375, 1.0]</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>[0.03125, 0.0, 0.078125, 0.078125, 0.0, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.09375, 0.041666666666666664, 0.0625, 0.015625, 0.09375, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625, 0.140625, 0.03125, 0.0, 0.015625, 0.03125, 0.015625, 0.078125, 0.03125, 0.015625, 0.046875, 0.046875, 0.03125, 0.015625, 0.03125, 0.046875, 0.03125, 0.09375, 0.015625, 0.015625, 0.03125, 0.0, 0.09375, 0.015625, 0.0, 0.140625, 0.015625, 0.03125, 0.015625, 0.03125, 0.046875, 0.015625, 0.046875, 0.03125, 0.0, 0.015625, 0.015625, 0.015625, 0.078125, 0.03125, 0.03125, 0.046875, 0.0625, 0.140625, 0.015625, 0.0625, 0.015625, 0.046875, 0.078125, 0.0625, 0.078125, 0.015625, 0.03125, 0.0, 0.03125, 0.03125, 0.0, 0.015625, 0.0, 0.046875, 0.015625, 0.03125, 0.0625, 0.03125, 0.015625, 0.015625, 0.046875, 0.0, 0.03125, 0.03125, 0.0, 0.046875, 0.0625, 0.0625, 0.0, 0.0, 0.015625, 0.046875, 0.0625, 0.015625, 0.046875, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.0625, 0.078125, 0.046875, 0.015625, 0.078125, 0.03125, 0.046875, 0.078125, 0.015625, 0.046875, 0.015625, 0.015625, 0.046875, 0.078125, 0.015625, 0.015625, 0.015625, 0.046875, 0.125, 0.109375, 0.015625, 0.0625, 0.015625, 0.015625, 0.109375, 0.015625, 0.0625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.0, 0.03125, 0.015625, 0.046875, 0.015625, 0.0625, 0.015625, 0.0, 0.109375, 0.015625, 0.09375, 0.0625, 0.0, 0.015625, 0.015625, 0.0625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.0, 0.0, 0.015625, 0.015625, 0.0625, 0.03125, 0.09375, 0.015625, 0.0625, 0.03125, 0.078125, 0.015625, 0.109375, 0.015625, 0.03125, 0.046875, 0.0625, 0.1875, 0.0, 0.0, 0.078125, 0.03125, 0.015625, 0.0625, 0.046875, 0.03125, 0.015625]</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.03125, 0.041666666666666664, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.140625, 0.1875, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.3221493125</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.9508208125000001</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>[0.0, 0.175, 0.27, 0.31, 0.32, 0.33, 0.33]</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>[0.0, 0.1, 0.45, 0.65, 0.655, 0.755, 0.845, 0.905, 0.935, 0.955, 0.96, 0.975, 0.98, 0.98]</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.03669270833333333</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.4937404580152672</v>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>Greedy</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>spatio-temporal</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.415</v>
+        <v>0.38</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03840361445783132</v>
+        <v>0.955</v>
       </c>
       <c r="E14" t="n">
-        <v>292.225</v>
+        <v>0.02837171052631579</v>
       </c>
       <c r="F14" t="n">
-        <v>214.8072289156626</v>
+        <v>0.03719458987783595</v>
       </c>
       <c r="G14" t="n">
-        <v>43.004068776375</v>
+        <v>29.4</v>
       </c>
       <c r="H14" t="n">
-        <v>0.053163302545</v>
+        <v>18.15789473684211</v>
       </c>
       <c r="I14" t="n">
-        <v>42.550995781165</v>
+        <v>3.059784501715</v>
       </c>
       <c r="J14" t="n">
-        <v>0.45307299521</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>[0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.109375, 0.015625, 0.046875, 0.078125, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.046875, 0.03125, 0.03125, 0.046875, 0.109375, 0.015625, 0.015625, 0.078125, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.046875, 0.09375, 0.03125, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.078125, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.15625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.5625, 0.078125, 0.03125, 0.015625, 0.03125, 0.109375, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.046875, 0.046875, 0.015625, 0.03125, 0.03125, 0.015625]</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.078125, 0.09375, 0.109375, 0.15625, 0.5625, 1.0]</t>
-        </is>
+        <v>6.554922999999999e-05</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.05216449484</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.007620006875</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[0.0, 0.205, 0.335, 0.365, 0.385, 0.39, 0.405, 0.41, 0.415, 0.415]</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.050703125</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>CoDy</t>
-        </is>
-      </c>
-      <c r="R14" t="b">
-        <v>0</v>
+          <t>[0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.0625, 0.015625, 0.046875, 0.015625, 0.03125, 0.046875, 0.015625, 0.03125, 0.015625, 0.03125, 0.046875, 0.03125, 0.015625, 0.046875, 0.015625, 0.015625, 0.09375, 0.015625, 0.046875, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.078125, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.0625, 0.03125, 0.015625, 0.015625, 0.03125, 0.09375, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.0625, 0.03125, 0.03125, 0.015625, 0.03125, 0.09375, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 1.0]</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>[0.03125, 0.0, 0.03125, 0.078125, 0.03125, 0.015625, 0.03125, 0.015625, 0.078125, 0.015625, 0.015625, 0.0625, 0.041666666666666664, 0.0, 0.015625, 0.046875, 0.015625, 0.046875, 0.015625, 0.09375, 0.03125, 0.015625, 0.015625, 0.140625, 0.03125, 0.046875, 0.015625, 0.03125, 0.0, 0.03125, 0.03125, 0.03125, 0.046875, 0.03125, 0.015625, 0.0, 0.046875, 0.015625, 0.140625, 0.015625, 0.109375, 0.03125, 0.0, 0.078125, 0.015625, 0.0, 0.078125, 0.09375, 0.09375, 0.015625, 0.03125, 0.046875, 0.046875, 0.046875, 0.03125, 0.0, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.03125, 0.0625, 0.015625, 0.0625, 0.03125, 0.03125, 0.078125, 0.03125, 0.078125, 0.015625, 0.03125, 0.0, 0.03125, 0.0, 0.0, 0.015625, 0.0, 0.015625, 0.078125, 0.03125, 0.0625, 0.03125, 0.015625, 0.0, 0.09375, 0.0, 0.03125, 0.03125, 0.0, 0.03125, 0.140625, 0.0625, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.09375, 0.015625, 0.0625, 0.03125, 0.015625, 0.046875, 0.015625, 0.03125, 0.0625, 0.078125, 0.0625, 0.078125, 0.015625, 0.03125, 0.0, 0.078125, 0.015625, 0.03125, 0.015625, 0.046875, 0.03125, 0.09375, 0.015625, 0.015625, 0.015625, 0.09375, 0.078125, 0.0625, 0.015625, 0.015625, 0.09375, 0.078125, 0.0, 0.03125, 0.0625, 0.0, 0.015625, 0.03125, 0.0, 0.03125, 0.015625, 0.0625, 0.03125, 0.03125, 0.046875, 0.0, 0.09375, 0.09375, 0.03125, 0.0, 0.03125, 0.0625, 0.0, 0.015625, 0.03125, 0.015625, 0.015625, 0.078125, 0.03125, 0.0, 0.015625, 0.03125, 0.015625, 0.0625, 0.015625, 0.015625, 0.0, 0.015625, 0.15625, 0.0625, 0.015625, 0.09375, 0.015625, 0.0625, 0.015625, 0.046875, 0.09375, 0.109375, 0.015625, 0.046875, 0.078125, 0.0, 0.0625, 0.0, 0.0, 0.09375, 0.015625, 0.015625, 0.046875, 0.03125, 0.03125, 0.015625]</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.03125, 0.041666666666666664, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.140625, 0.15625, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.370626</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.9256647124999999</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>[0.0, 0.2, 0.32, 0.345, 0.36, 0.365, 0.38, 0.38]</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>[0.0, 0.13, 0.405, 0.635, 0.64, 0.71, 0.79, 0.86, 0.925, 0.935, 0.95, 0.955, 0.955]</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.03677083333333333</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.5436704119850188</v>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>Greedy</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>random</t>
+          <t>1-delta</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.075</v>
+        <v>0.345</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03958333333333333</v>
+        <v>0.98</v>
       </c>
       <c r="E15" t="n">
-        <v>23.4</v>
+        <v>0.02468297101449275</v>
       </c>
       <c r="F15" t="n">
-        <v>25.33333333333333</v>
+        <v>0.03361500850340136</v>
       </c>
       <c r="G15" t="n">
-        <v>2.585628352755</v>
+        <v>79.175</v>
       </c>
       <c r="H15" t="n">
-        <v>6.7395315e-05</v>
+        <v>68.79710144927536</v>
       </c>
       <c r="I15" t="n">
-        <v>2.58031271672</v>
+        <v>9.595180684319999</v>
       </c>
       <c r="J15" t="n">
-        <v>0.005315636035</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>[0.015625, 0.03125, 0.0625, 0.0625, 0.015625, 0.015625, 0.0625, 0.0625, 0.03125, 0.03125, 0.03125, 0.03125, 0.015625, 0.09375, 0.03125]</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.0625, 0.09375, 1.0]</t>
-        </is>
+        <v>4.9602001358</v>
+      </c>
+      <c r="K15" t="n">
+        <v>9.57283076193</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.02234992239</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[0.0, 0.02, 0.05, 0.07, 0.075, 0.075]</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>0.965</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.022890625</v>
-      </c>
-      <c r="Q15" t="inlineStr">
+          <t>[0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.046875, 0.03125, 0.015625, 0.046875, 0.015625, 0.046875, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.078125, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.046875, 0.0625, 0.015625, 0.03125, 0.03125, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 1.0]</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>[0.015625, 0.015625, 0.078125, 0.09375, 0.015625, 0.015625, 0.046875, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.041666666666666664, 0.03125, 0.015625, 0.046875, 0.109375, 0.015625, 0.015625, 0.046875, 0.03125, 0.03125, 0.046875, 0.015625, 0.046875, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.03125, 0.015625, 0.078125, 0.046875, 0.03125, 0.015625, 0.015625, 0.046875, 0.015625, 0.0625, 0.015625, 0.015625, 0.03125, 0.015625, 0.0625, 0.015625, 0.015625, 0.015625, 0.09375, 0.046875, 0.015625, 0.015625, 0.015625, 0.03125, 0.046875, 0.015625, 0.0, 0.03125, 0.015625, 0.0625, 0.03125, 0.03125, 0.03125, 0.03125, 0.0625, 0.015625, 0.015625, 0.015625, 0.109375, 0.046875, 0.03125, 0.09375, 0.015625, 0.03125, 0.0, 0.03125, 0.046875, 0.0, 0.015625, 0.0, 0.03125, 0.078125, 0.03125, 0.0625, 0.03125, 0.015625, 0.015625, 0.046875, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.078125, 0.015625, 0.078125, 0.046875, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.09375, 0.109375, 0.015625, 0.09375, 0.03125, 0.015625, 0.078125, 0.015625, 0.09375, 0.015625, 0.015625, 0.03125, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.078125, 0.03125, 0.015625, 0.015625, 0.109375, 0.03125, 0.015625, 0.015625, 0.0625, 0.046875, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.15625, 0.015625, 0.03125, 0.046875, 0.0, 0.03125, 0.015625, 0.09375, 0.0625, 0.015625, 0.0625, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.0625, 0.125, 0.03125, 0.0, 0.015625, 0.078125, 0.015625, 0.03125, 0.09375, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.078125, 0.015625, 0.015625, 0.046875, 0.0625, 0.015625, 0.0, 0.0, 0.078125, 0.0625, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625]</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.03125, 0.041666666666666664, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.15625, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.3376181874999999</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.953984575</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>[0.0, 0.2, 0.305, 0.335, 0.34, 0.345, 0.345]</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>[0.0, 0.04, 0.49, 0.715, 0.72, 0.805, 0.86, 0.91, 0.95, 0.97, 0.975, 0.98, 0.98]</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.03356770833333333</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.5103396226415094</v>
+      </c>
+      <c r="Y15" t="inlineStr">
         <is>
           <t>Greedy</t>
         </is>
-      </c>
-      <c r="R15" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>random</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.33</v>
+        <v>0.355</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02769886363636364</v>
+        <v>0.95</v>
       </c>
       <c r="E16" t="n">
-        <v>29.85</v>
+        <v>0.04049295774647887</v>
       </c>
       <c r="F16" t="n">
-        <v>17.72727272727273</v>
+        <v>0.04991776315789474</v>
       </c>
       <c r="G16" t="n">
-        <v>3.13097577488</v>
+        <v>246.825</v>
       </c>
       <c r="H16" t="n">
-        <v>6.730828999999999e-05</v>
+        <v>169.5915492957747</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1244886246</v>
+        <v>36.404912224125</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00648715028</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>[0.03125, 0.03125, 0.015625, 0.015625, 0.09375, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.046875, 0.046875, 0.03125, 0.015625, 0.046875, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.046875, 0.03125, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.0625, 0.09375, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.046875, 0.0625, 0.015625, 0.046875, 0.03125, 0.015625]</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.09375, 1.0]</t>
-        </is>
+        <v>0.000680933015</v>
+      </c>
+      <c r="K16" t="n">
+        <v>35.993800809235</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.41111141489</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[0.0, 0.175, 0.27, 0.31, 0.32, 0.33, 0.33]</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.03669270833333333</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Greedy</t>
-        </is>
-      </c>
-      <c r="R16" t="b">
-        <v>0</v>
+          <t>[0.0625, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.171875, 0.015625, 0.046875, 0.0625, 0.015625, 0.015625, 0.015625, 0.03125, 0.109375, 0.15625, 0.09375, 0.015625, 0.015625, 0.140625, 0.015625, 0.0625, 0.015625, 0.015625, 0.015625, 0.0625, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.046875, 0.0625, 0.03125, 0.015625, 0.046875, 0.015625, 0.015625, 0.03125, 0.015625, 0.15625, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.046875, 0.171875, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.1875, 0.046875, 0.015625, 0.046875, 0.046875, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.078125, 0.046875, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.140625, 0.15625, 0.171875, 0.1875, 1.0]</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>[0.0625, 0.03125, 0.03125, 0.09375, 0.109375, 0.0625, 0.046875, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.125, 0.03125, 0.015625, 0.171875, 0.03125, 0.046875, 0.015625, 0.046875, 0.046875, 0.03125, 0.015625, 0.03125, 0.046875, 0.0625, 0.015625, 0.0, 0.015625, 0.09375, 0.015625, 0.03125, 0.03125, 0.109375, 0.15625, 0.03125, 0.09375, 0.046875, 0.03125, 0.015625, 0.03125, 0.046875, 0.015625, 0.078125, 0.359375, 0.015625, 0.03125, 0.03125, 0.140625, 0.015625, 0.03125, 0.046875, 0.0625, 0.0625, 0.015625, 0.0, 0.046875, 0.015625, 0.0625, 0.046875, 0.015625, 0.0625, 0.0625, 0.046875, 0.015625, 0.03125, 0.03125, 0.03125, 0.03125, 0.109375, 0.09375, 0.015625, 0.03125, 0.0, 0.03125, 0.03125, 0.03125, 0.03125, 0.0, 0.046875, 0.109375, 0.0625, 0.03125, 0.0625, 0.203125, 0.03125, 0.03125, 0.015625, 0.03125, 0.046875, 0.015625, 0.046875, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.140625, 0.015625, 0.0625, 0.15625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.046875, 0.03125, 0.03125, 0.03125, 0.046875, 0.03125, 0.03125, 0.015625, 0.03125, 0.015625, 0.046875, 0.171875, 0.09375, 0.03125, 0.015625, 0.015625, 0.03125, 0.0625, 0.09375, 0.015625, 0.015625, 0.078125, 0.109375, 0.03125, 0.03125, 0.1875, 0.03125, 0.03125, 0.0625, 0.03125, 0.046875, 0.015625, 0.0625, 0.046875, 0.046875, 0.109375, 0.0, 0.09375, 0.1875, 0.140625, 0.03125, 0.09375, 0.03125, 0.03125, 0.03125, 0.046875, 0.015625, 0.015625, 0.046875, 0.03125, 0.046875, 0.015625, 0.09375, 0.03125, 0.03125, 0.03125, 0.109375, 0.0, 0.015625, 0.125, 0.03125, 0.03125, 0.078125, 0.015625, 0.265625, 0.03125, 0.03125, 0.046875, 0.015625, 0.109375, 0.0625, 0.03125, 0.0, 0.0, 0.09375, 0.078125, 0.015625, 0.03125, 0.078125, 0.046875, 0.015625]</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.140625, 0.15625, 0.171875, 0.1875, 0.203125, 0.265625, 0.359375, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.3418369625</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.9100001999999999</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>[0.0, 0.205, 0.235, 0.285, 0.31, 0.315, 0.32, 0.325, 0.33, 0.34, 0.35, 0.355, 0.355]</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>[0.0, 0.04, 0.245, 0.565, 0.69, 0.765, 0.79, 0.84, 0.88, 0.89, 0.905, 0.915, 0.925, 0.935, 0.94, 0.945, 0.95, 0.95]</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.04921875</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.5168582375478926</v>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>CoDy</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>closest</t>
+          <t>temporal</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.025</v>
+        <v>0.39</v>
       </c>
       <c r="D17" t="n">
-        <v>0.04375</v>
+        <v>0.955</v>
       </c>
       <c r="E17" t="n">
-        <v>22.35</v>
+        <v>0.04226762820512821</v>
       </c>
       <c r="F17" t="n">
-        <v>28</v>
+        <v>0.043793630017452</v>
       </c>
       <c r="G17" t="n">
-        <v>2.394366390485</v>
+        <v>245.64</v>
       </c>
       <c r="H17" t="n">
-        <v>6.6874755e-05</v>
+        <v>178.3461538461538</v>
       </c>
       <c r="I17" t="n">
-        <v>2.388357103095</v>
+        <v>36.053679122735</v>
       </c>
       <c r="J17" t="n">
-        <v>0.00600928739</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>[0.015625, 0.03125, 0.125, 0.015625, 0.03125]</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.125, 1.0]</t>
-        </is>
+        <v>0.00056981451</v>
+      </c>
+      <c r="K17" t="n">
+        <v>35.58705442561</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.466624697125</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[0.0, 0.01, 0.02, 0.025, 0.025]</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.02111979166666667</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Greedy</t>
-        </is>
-      </c>
-      <c r="R17" t="b">
-        <v>0</v>
+          <t>[0.046875, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.0625, 0.15625, 0.015625, 0.03125, 0.046875, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.046875, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.6875, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.203125, 0.03125, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.203125, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.265625, 0.03125, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.046875, 0.078125, 0.015625, 0.03125, 0.03125, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.15625, 0.203125, 0.265625, 0.6875, 1.0]</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>[0.03125, 0.015625, 0.03125, 0.078125, 0.03125, 0.046875, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.08333333333333333, 0.03125, 0.015625, 0.0625, 0.015625, 0.15625, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.046875, 0.03125, 0.046875, 0.015625, 0.0, 0.015625, 0.046875, 0.03125, 0.015625, 0.03125, 0.046875, 0.03125, 0.03125, 0.3125, 0.046875, 0.0625, 0.046875, 0.015625, 0.03125, 0.046875, 0.015625, 0.078125, 0.1875, 0.015625, 0.046875, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.078125, 0.015625, 0.0, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.03125, 0.6875, 0.078125, 0.015625, 0.140625, 0.03125, 0.03125, 0.03125, 0.203125, 0.03125, 0.015625, 0.03125, 0.0, 0.03125, 0.03125, 0.015625, 0.03125, 0.0, 0.03125, 0.203125, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.046875, 0.015625, 0.03125, 0.046875, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.15625, 0.015625, 0.0625, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.078125, 0.03125, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.203125, 0.015625, 0.015625, 0.015625, 0.046875, 0.03125, 0.109375, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.03125, 0.265625, 0.03125, 0.015625, 0.078125, 0.03125, 0.03125, 0.015625, 0.046875, 0.03125, 0.03125, 0.0625, 0.0, 0.078125, 0.03125, 0.046875, 0.015625, 0.25, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625, 0.046875, 0.03125, 0.03125, 0.03125, 0.03125, 0.0, 0.015625, 0.046875, 0.03125, 0.03125, 0.078125, 0.015625, 0.140625, 0.03125, 0.046875, 0.03125, 0.03125, 0.015625, 0.03125, 0.046875, 0.078125, 0.046875, 0.0, 0.0, 0.03125, 0.03125, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625]</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.08333333333333333, 0.109375, 0.140625, 0.15625, 0.1875, 0.203125, 0.25, 0.265625, 0.3125, 0.6875, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.376407275</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.9214975958333333</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.205, 0.335, 0.355, 0.36, 0.365, 0.37, 0.38, 0.385, 0.39, 0.39]</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.04, 0.32, 0.72, 0.82, 0.84, 0.885, 0.89, 0.895, 0.905, 0.915, 0.92, 0.935, 0.94, 0.945, 0.95, 0.955, 0.955]</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.04401041666666666</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.5538289962825279</v>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>CoDy</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>spatio-temporal</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.345</v>
+        <v>0.405</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02468297101449275</v>
+        <v>0.945</v>
       </c>
       <c r="E18" t="n">
-        <v>79.175</v>
+        <v>0.02951388888888889</v>
       </c>
       <c r="F18" t="n">
-        <v>68.79710144927536</v>
+        <v>0.03607253086419753</v>
       </c>
       <c r="G18" t="n">
-        <v>9.595180684319999</v>
+        <v>245.44</v>
       </c>
       <c r="H18" t="n">
-        <v>4.9602001358</v>
+        <v>182.3950617283951</v>
       </c>
       <c r="I18" t="n">
-        <v>9.57283076193</v>
+        <v>37.35457269503</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02234992239</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>[0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.046875, 0.03125, 0.015625, 0.046875, 0.015625, 0.046875, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.078125, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.046875, 0.0625, 0.015625, 0.03125, 0.03125, 0.015625]</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 1.0]</t>
-        </is>
+        <v>0.001008143465</v>
+      </c>
+      <c r="K18" t="n">
+        <v>35.731533867985</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.623038827045</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[0.0, 0.2, 0.305, 0.335, 0.34, 0.345, 0.345]</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.03356770833333333</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Greedy</t>
-        </is>
-      </c>
-      <c r="R18" t="b">
-        <v>0</v>
+          <t>[0.046875, 0.03125, 0.015625, 0.015625, 0.015625, 0.015625, 0.046875, 0.015625, 0.03125, 0.046875, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.046875, 0.03125, 0.03125, 0.046875, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.03125, 0.09375, 0.03125, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.0625, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.140625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.078125, 0.078125, 0.03125, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.046875, 0.140625, 0.015625, 0.03125, 0.03125, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.140625, 1.0]</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>[0.046875, 0.015625, 0.03125, 0.078125, 0.046875, 0.046875, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.08333333333333333, 0.015625, 0.015625, 0.046875, 0.03125, 0.265625, 0.015625, 0.03125, 0.03125, 0.03125, 0.046875, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625, 0.0, 0.015625, 0.0625, 0.015625, 0.03125, 0.046875, 0.03125, 0.03125, 0.03125, 0.046875, 0.046875, 0.0625, 0.015625, 0.03125, 0.015625, 0.03125, 0.109375, 0.015625, 0.0625, 0.03125, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.0625, 0.015625, 0.0, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.03125, 0.03125, 0.046875, 0.015625, 0.21875, 0.03125, 0.03125, 0.03125, 0.0625, 0.03125, 0.015625, 0.03125, 0.0, 0.03125, 0.03125, 0.015625, 0.03125, 0.0, 0.03125, 0.09375, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.03125, 0.046875, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.09375, 0.015625, 0.0625, 0.03125, 0.015625, 0.046875, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.0625, 0.03125, 0.046875, 0.03125, 0.03125, 0.03125, 0.015625, 0.046875, 0.015625, 0.03125, 0.03125, 0.140625, 0.015625, 0.015625, 0.015625, 0.046875, 0.03125, 0.125, 0.015625, 0.015625, 0.078125, 0.046875, 0.03125, 0.03125, 0.078125, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.046875, 0.0625, 0.03125, 0.0625, 0.0, 0.0625, 0.046875, 0.03125, 0.015625, 0.046875, 0.03125, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.0625, 0.03125, 0.015625, 0.015625, 0.046875, 0.03125, 0.03125, 0.03125, 0.0625, 0.0, 0.015625, 0.140625, 0.03125, 0.03125, 0.03125, 0.015625, 0.0625, 0.03125, 0.046875, 0.03125, 0.03125, 0.015625, 0.046875, 0.046875, 0.140625, 0.03125, 0.0, 0.0, 0.03125, 0.03125, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625]</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.08333333333333333, 0.09375, 0.109375, 0.125, 0.140625, 0.21875, 0.265625, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.39476665</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.9181642624999999</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>[0.0, 0.205, 0.345, 0.375, 0.38, 0.39, 0.395, 0.405, 0.405]</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>[0.0, 0.04, 0.305, 0.705, 0.815, 0.88, 0.895, 0.9, 0.91, 0.915, 0.92, 0.935, 0.94, 0.945, 0.945]</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.03643229166666666</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.5670000000000001</v>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>CoDy</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1-delta</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.2512820512820513</v>
+        <v>0.415</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4578231292517006</v>
+        <v>0.96</v>
       </c>
       <c r="E19" t="n">
-        <v>13685.13846153846</v>
+        <v>0.03840361445783132</v>
       </c>
       <c r="F19" t="n">
-        <v>13805</v>
+        <v>0.05094401041666666</v>
       </c>
       <c r="G19" t="n">
-        <v>79.84199424768205</v>
+        <v>292.225</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03335020975384615</v>
+        <v>214.8072289156626</v>
       </c>
       <c r="I19" t="n">
-        <v>63.97115796353846</v>
+        <v>43.004068776375</v>
       </c>
       <c r="J19" t="n">
-        <v>15.83748607438974</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>[0.03333333333333333, 0.13333333333333333, 0.7, 0.6, 0.06666666666666667, 0.8, 0.1, 0.9, 0.7, 0.4666666666666667, 0.3, 0.2, 0.8333333333333334, 0.26666666666666666, 0.03333333333333333, 0.8666666666666667, 0.2, 0.5333333333333333, 0.5, 0.1, 0.9333333333333333, 0.8333333333333334, 0.6333333333333333, 0.7, 0.3333333333333333, 0.1, 0.7666666666666667, 0.23333333333333334, 0.2, 0.7, 0.7333333333333333, 0.1, 0.8333333333333334, 0.1, 0.6333333333333333, 0.13333333333333333, 0.9333333333333333, 0.23333333333333334, 0.7333333333333333, 0.7333333333333333, 0.4, 0.06666666666666667, 0.2, 0.8333333333333334, 0.43333333333333335, 0.9333333333333333, 0.06666666666666667, 0.36666666666666664, 0.2]</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>[0.03332333333333333, 0.03333333333333333, 0.06666666666666667, 0.1, 0.13333333333333333, 0.2, 0.23333333333333334, 0.26666666666666666, 0.3, 0.3333333333333333, 0.36666666666666664, 0.4, 0.43333333333333335, 0.4666666666666667, 0.5, 0.5333333333333333, 0.6, 0.6333333333333333, 0.7, 0.7333333333333333, 0.7666666666666667, 0.8, 0.8333333333333334, 0.8666666666666667, 0.9, 0.9333333333333333, 1.0]</t>
-        </is>
+        <v>0.053163302545</v>
+      </c>
+      <c r="K19" t="n">
+        <v>42.550995781165</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.45307299521</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[0.0, 0.01, 0.025, 0.05, 0.06, 0.085, 0.095, 0.1, 0.105, 0.11, 0.115, 0.12, 0.125, 0.13, 0.135, 0.14, 0.145, 0.155, 0.175, 0.19, 0.195, 0.2, 0.22, 0.225, 0.23, 0.245, 0.245]</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>0.8256410256410256</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.2512820512820513</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.3523196981390961</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>TGNNExplainer</t>
-        </is>
-      </c>
-      <c r="R19" t="b">
-        <v>0</v>
+          <t>[0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.109375, 0.015625, 0.046875, 0.078125, 0.015625, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.046875, 0.03125, 0.03125, 0.046875, 0.109375, 0.015625, 0.015625, 0.078125, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.046875, 0.09375, 0.03125, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.015625, 0.078125, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.15625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.015625, 0.5625, 0.078125, 0.03125, 0.015625, 0.03125, 0.109375, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.03125, 0.015625, 0.015625, 0.046875, 0.046875, 0.015625, 0.03125, 0.03125, 0.015625]</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>[0.015615, 0.015625, 0.03125, 0.046875, 0.078125, 0.09375, 0.109375, 0.15625, 0.5625, 1.0]</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>[0.03125, 0.03125, 0.078125, 0.21875, 0.09375, 0.03125, 0.03125, 0.015625, 0.03125, 0.015625, 0.015625, 0.109375, 0.125, 0.03125, 0.015625, 0.046875, 0.0625, 0.078125, 0.015625, 0.078125, 0.03125, 0.03125, 0.109375, 0.015625, 0.03125, 0.03125, 0.078125, 0.015625, 0.0, 0.03125, 0.140625, 0.109375, 0.015625, 0.03125, 0.046875, 0.03125, 0.03125, 0.0625, 0.046875, 0.109375, 0.0625, 0.015625, 0.03125, 0.03125, 0.015625, 0.078125, 0.078125, 0.03125, 0.0625, 0.03125, 0.03125, 0.015625, 0.03125, 0.046875, 0.03125, 0.09375, 0.015625, 0.0, 0.0625, 0.015625, 0.078125, 0.046875, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625, 0.125, 0.03125, 0.03125, 0.046875, 0.265625, 0.046875, 0.015625, 0.03125, 0.0, 0.125, 0.03125, 0.03125, 0.03125, 0.0, 0.046875, 0.09375, 0.046875, 0.03125, 0.03125, 0.46875, 0.046875, 0.03125, 0.03125, 0.03125, 0.046875, 0.015625, 0.03125, 0.0625, 0.046875, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.078125, 0.015625, 0.0625, 0.03125, 0.015625, 0.0625, 0.015625, 0.015625, 0.03125, 0.03125, 0.046875, 0.078125, 0.03125, 0.046875, 0.03125, 0.03125, 0.03125, 0.015625, 0.0625, 0.015625, 0.03125, 0.03125, 0.15625, 0.03125, 0.015625, 0.015625, 0.03125, 0.03125, 0.109375, 0.015625, 0.015625, 0.15625, 0.046875, 0.03125, 0.03125, 0.5625, 0.03125, 0.046875, 0.03125, 0.03125, 0.015625, 0.078125, 0.109375, 0.03125, 0.046875, 0.0, 0.1875, 0.109375, 0.0625, 0.03125, 0.109375, 0.03125, 0.03125, 0.03125, 0.03125, 0.015625, 0.015625, 0.0625, 0.03125, 0.046875, 0.015625, 0.09375, 0.03125, 0.03125, 0.0625, 0.046875, 0.0, 0.015625, 0.125, 0.03125, 0.03125, 0.078125, 0.015625, 0.171875, 0.03125, 0.03125, 0.0625, 0.015625, 0.0625, 0.046875, 0.046875, 0.046875, 0.0, 0.0, 0.046875, 0.046875, 0.015625, 0.03125, 0.03125, 0.03125, 0.015625]</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>[-1e-05, 0.0, 0.015625, 0.03125, 0.046875, 0.0625, 0.078125, 0.09375, 0.109375, 0.125, 0.140625, 0.15625, 0.171875, 0.1875, 0.21875, 0.265625, 0.46875, 0.5625, 1.0]</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.4019150875</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.9190627</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>[0.0, 0.205, 0.335, 0.365, 0.385, 0.39, 0.405, 0.41, 0.415, 0.415]</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>[0.0, 0.04, 0.23, 0.59, 0.71, 0.78, 0.835, 0.855, 0.895, 0.915, 0.92, 0.93, 0.935, 0.94, 0.945, 0.95, 0.955, 0.96, 0.96]</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.050703125</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.5794909090909091</v>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>CoDy</t>
+        </is>
       </c>
     </row>
   </sheetData>
